--- a/Master 호기.xlsx
+++ b/Master 호기.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/BATCH Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/BATCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F3A0DD-72F3-4202-BB9B-9D39108F8260}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22218C8F-F5C7-4999-AD92-3AA2F9CB4221}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7658D54-A6FE-4B9A-A4D4-D89D7208AE5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>301L</t>
   </si>
@@ -105,7 +105,7 @@
     <t>1st #10</t>
   </si>
   <si>
-    <t>Test 진행</t>
+    <t>2nd #12</t>
   </si>
 </sst>
 </file>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,10 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +491,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,13 +574,13 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -585,13 +592,15 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">

--- a/Master 호기.xlsx
+++ b/Master 호기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/BATCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22218C8F-F5C7-4999-AD92-3AA2F9CB4221}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816A9E6F-623A-497D-9956-81218FF6A7E3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7658D54-A6FE-4B9A-A4D4-D89D7208AE5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>301L</t>
   </si>
@@ -87,15 +87,9 @@
     <t>505L</t>
   </si>
   <si>
-    <t>작업현황</t>
-  </si>
-  <si>
     <t>Master</t>
   </si>
   <si>
-    <t>1st 완료. 2nd Test</t>
-  </si>
-  <si>
     <t>완료</t>
   </si>
   <si>
@@ -106,6 +100,17 @@
   </si>
   <si>
     <t>2nd #12</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1. Ch 별 Log Collect (General, Operation, appsetting, Emu, Dove, Truetest error log 수집)
+2. General log 생성 setting 변경 (False -&gt; True)
+3. Summary , M log 수집 (개별 폴더)</t>
   </si>
 </sst>
 </file>
@@ -169,11 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,157 +500,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309C41C7-DE95-4FFE-9455-E39165C41DF5}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="60">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Master 호기.xlsx
+++ b/Master 호기.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/BATCH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/Programming/BATCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816A9E6F-623A-497D-9956-81218FF6A7E3}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B2C898-874F-4F0B-A759-DDD176D05729}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7658D54-A6FE-4B9A-A4D4-D89D7208AE5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>301L</t>
   </si>
@@ -110,7 +110,18 @@
   <si>
     <t>1. Ch 별 Log Collect (General, Operation, appsetting, Emu, Dove, Truetest error log 수집)
 2. General log 생성 setting 변경 (False -&gt; True)
-3. Summary , M log 수집 (개별 폴더)</t>
+3. Summary , M log 수집 (개별 폴더)
+4. General Log, Operation Log 삭제 (60일 지난 파일)</t>
+  </si>
+  <si>
+    <t>현재버전 기능</t>
+  </si>
+  <si>
+    <t>1. Ch 별 Log Collect (General, Operation, appsetting, Emu, Dove, Truetest error log 수집)
+2. General log 생성 setting 변경 (False -&gt; True)
+3. Summary , M log 수집 (개별 폴더)
+4. General Log, Operation Log 삭제 (60일 지난 파일)
+5. Summary log, M Log 없을 시 취합 폴더 내, No Operation Log.txt , No M_Log.txt 파일 생성</t>
   </si>
 </sst>
 </file>
@@ -147,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,11 +181,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -184,7 +232,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309C41C7-DE95-4FFE-9455-E39165C41DF5}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,44 +579,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:5" ht="74.25" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -561,7 +622,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -569,7 +630,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -577,7 +638,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -585,7 +646,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -593,91 +654,119 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" ht="60">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" ht="75">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Master 호기.xlsx
+++ b/Master 호기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/Programming/BATCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B2C898-874F-4F0B-A759-DDD176D05729}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDFBD06-34F9-4322-9B75-272D6811913B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7658D54-A6FE-4B9A-A4D4-D89D7208AE5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>301L</t>
   </si>
@@ -93,35 +93,38 @@
     <t>완료</t>
   </si>
   <si>
-    <t>1st #4</t>
-  </si>
-  <si>
     <t>1st #10</t>
   </si>
   <si>
     <t>2nd #12</t>
   </si>
   <si>
-    <t>Functions</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>1. Ch 별 Log Collect (General, Operation, appsetting, Emu, Dove, Truetest error log 수집)
-2. General log 생성 setting 변경 (False -&gt; True)
-3. Summary , M log 수집 (개별 폴더)
-4. General Log, Operation Log 삭제 (60일 지난 파일)</t>
-  </si>
-  <si>
     <t>현재버전 기능</t>
   </si>
   <si>
-    <t>1. Ch 별 Log Collect (General, Operation, appsetting, Emu, Dove, Truetest error log 수집)
-2. General log 생성 setting 변경 (False -&gt; True)
-3. Summary , M log 수집 (개별 폴더)
-4. General Log, Operation Log 삭제 (60일 지난 파일)
-5. Summary log, M Log 없을 시 취합 폴더 내, No Operation Log.txt , No M_Log.txt 파일 생성</t>
+    <t>1st 전개완료</t>
+  </si>
+  <si>
+    <t>구버전 전개. 업데이트 필요</t>
+  </si>
+  <si>
+    <t>1. 매일 오전 2시 30분, 전날의 Log 취합 
+- 취합 대상 파일 : Summary Log, M Log, General Log, Operation Log, Dove2p0_PG.Dove2p0_PG.xml, Emu2p0_PG.Emu2p0_PG.xml, app.settings, sequence, Master (Sequence)
+2. General Logging 기능 True 로 변경 - 적용 완료
+- 자사 직원 혹은 ISE 인원들이 Appdata 내, General Logging 기능을 False 로 변경해놓는 경우가 있어 해당 기능 매일 True 로 변경
+3. General Log, Operation Log 자동삭제 (30일) - 현재 미적용. 추후 적용 예정
+- Appdata 내의 원본 General Log 및 Operation Log 를 생성된지 30일이 지나면 자동으로 삭제
+4. Backup Log 자동삭제 (60일) - 적용 완료
+- 백업된 Log 를 60일이 지나면 자동으로 삭제</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>현재 버전 적용 완료</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,12 +151,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,17 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -248,6 +239,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,50 +563,50 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="71.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" ht="201" customHeight="1">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="2:5" ht="74.25" customHeight="1">
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -661,105 +658,115 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" ht="75">
-      <c r="B22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Master 호기.xlsx
+++ b/Master 호기.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://radiantvs-my.sharepoint.com/personal/daniel_yang_radiantvs_com/Documents/Yang Tai Yoon/Programming/BATCH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDFBD06-34F9-4322-9B75-272D6811913B}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{CF61D773-894B-40CE-8DF4-B9090FF73853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA5AA42-DD61-4A29-8C0C-D548CE07018C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7658D54-A6FE-4B9A-A4D4-D89D7208AE5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>301L</t>
   </si>
@@ -109,22 +109,26 @@
   </si>
   <si>
     <t>구버전 전개. 업데이트 필요</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
   <si>
     <t>1. 매일 오전 2시 30분, 전날의 Log 취합 
 - 취합 대상 파일 : Summary Log, M Log, General Log, Operation Log, Dove2p0_PG.Dove2p0_PG.xml, Emu2p0_PG.Emu2p0_PG.xml, app.settings, sequence, Master (Sequence)
-2. General Logging 기능 True 로 변경 - 적용 완료
+2. 매일 오전 3시, 각 Main PC 에 취합된 Log 를 Master PC 로 재취합
+3. General Logging 기능 True 로 변경 
 - 자사 직원 혹은 ISE 인원들이 Appdata 내, General Logging 기능을 False 로 변경해놓는 경우가 있어 해당 기능 매일 True 로 변경
-3. General Log, Operation Log 자동삭제 (30일) - 현재 미적용. 추후 적용 예정
+4. General Log, Operation Log 자동삭제 (30일)
 - Appdata 내의 원본 General Log 및 Operation Log 를 생성된지 30일이 지나면 자동으로 삭제
-4. Backup Log 자동삭제 (60일) - 적용 완료
+5. Backup Log 자동삭제 (60일)
 - 백업된 Log 를 60일이 지나면 자동으로 삭제</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>현재 버전 적용 완료</t>
+    <t>최신 버전 업데이트 완료</t>
+  </si>
+  <si>
+    <t>Old Log Delete 기능 제외 적용중</t>
   </si>
 </sst>
 </file>
@@ -141,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -229,6 +239,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,10 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,20 +589,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" ht="201" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" ht="233.25" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3"/>
@@ -606,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -658,21 +671,21 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -680,93 +693,93 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
+      <c r="E17" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>27</v>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
